--- a/final_graphics/water_properties_appendix.xlsx
+++ b/final_graphics/water_properties_appendix.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sierra/Documents/Research/Ordination analysis R scripts/ARTEMIS_github/final_graphics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBF19CE-6672-B645-8929-C146BFBC05DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9CF71-FB48-A44E-B725-6A1D497A000F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="800" windowWidth="25800" windowHeight="17440" xr2:uid="{D815A0EB-6DAA-3A45-8EA8-EEE87DF50B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:O269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1453,14 +1453,13 @@
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -14091,7 +14090,7 @@
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="C34:C35"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>